--- a/Data/aearep-1016/candidatepackages.xlsx
+++ b/Data/aearep-1016/candidatepackages.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
   <si>
     <t>(Potential) missing package found</t>
   </si>
@@ -25,9 +25,6 @@
     <t>estout</t>
   </si>
   <si>
-    <t>filelist</t>
-  </si>
-  <si>
     <t>reghdfe</t>
   </si>
   <si>
@@ -40,69 +37,54 @@
     <t>diff</t>
   </si>
   <si>
+    <t>synth</t>
+  </si>
+  <si>
     <t>sxpose</t>
   </si>
   <si>
-    <t>synth</t>
-  </si>
-  <si>
     <t>parallel</t>
   </si>
   <si>
     <t>missing</t>
   </si>
   <si>
-    <t>network</t>
+    <t>mean2</t>
   </si>
   <si>
     <t>outsum</t>
   </si>
   <si>
-    <t>mean2</t>
+    <t>title</t>
   </si>
   <si>
     <t>sq</t>
   </si>
   <si>
+    <t>cluster</t>
+  </si>
+  <si>
     <t>report</t>
   </si>
   <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>cluster</t>
+    <t>isco</t>
   </si>
   <si>
     <t>index</t>
   </si>
   <si>
-    <t>lars</t>
+    <t>combine</t>
   </si>
   <si>
     <t>firstdigit</t>
   </si>
   <si>
-    <t>combine</t>
-  </si>
-  <si>
-    <t>isco</t>
-  </si>
-  <si>
     <t>effects</t>
   </si>
   <si>
-    <t>next</t>
-  </si>
-  <si>
     <t>benford</t>
   </si>
   <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>zip</t>
-  </si>
-  <si>
     <t>dash</t>
   </si>
   <si>
@@ -118,27 +100,15 @@
     <t>dirname</t>
   </si>
   <si>
-    <t>/home/lv39/Workspace/AEA/all//aearep-1016</t>
-  </si>
-  <si>
     <t>/home/lv39/Workspace/AEA/all//aearep-1016/119690</t>
   </si>
   <si>
     <t>/home/lv39/Workspace/AEA/all//aearep-1016/119690/DoFile</t>
   </si>
   <si>
-    <t>/home/lv39/Workspace/AEA/all//aearep-1016/tools</t>
-  </si>
-  <si>
     <t>filename</t>
   </si>
   <si>
-    <t>PII_stata_scan.do</t>
-  </si>
-  <si>
-    <t>template-config.do</t>
-  </si>
-  <si>
     <t>master.do</t>
   </si>
   <si>
@@ -158,9 +128,6 @@
   </si>
   <si>
     <t>data_clean_micro.do</t>
-  </si>
-  <si>
-    <t>convert_graphs.do</t>
   </si>
 </sst>
 </file>
@@ -204,7 +171,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D24"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -212,13 +179,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2">
@@ -226,7 +193,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -250,7 +217,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -262,7 +229,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -274,7 +241,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -286,7 +253,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -298,7 +265,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -310,7 +277,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>56</v>
+        <v>121</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -322,7 +289,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>57</v>
+        <v>141</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -334,7 +301,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>125</v>
+        <v>293</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -346,7 +313,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>267</v>
+        <v>317</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -358,7 +325,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>279</v>
+        <v>326</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -370,10 +337,10 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>314</v>
+        <v>499</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>0.16495867073535919</v>
       </c>
       <c r="D14"/>
     </row>
@@ -382,10 +349,10 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>316</v>
+        <v>525</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.1735537201166153</v>
       </c>
       <c r="D15"/>
     </row>
@@ -397,7 +364,7 @@
         <v>563</v>
       </c>
       <c r="C16">
-        <v>0.18667109310626984</v>
+        <v>0.18611569702625275</v>
       </c>
       <c r="D16"/>
     </row>
@@ -406,10 +373,10 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>564</v>
+        <v>611</v>
       </c>
       <c r="C17">
-        <v>0.18700265884399414</v>
+        <v>0.20198346674442291</v>
       </c>
       <c r="D17"/>
     </row>
@@ -418,10 +385,10 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>565</v>
+        <v>735</v>
       </c>
       <c r="C18">
-        <v>0.18733422458171844</v>
+        <v>0.24297520518302917</v>
       </c>
       <c r="D18"/>
     </row>
@@ -430,10 +397,10 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>566</v>
+        <v>998</v>
       </c>
       <c r="C19">
-        <v>0.18766577541828156</v>
+        <v>0.32991734147071838</v>
       </c>
       <c r="D19"/>
     </row>
@@ -442,10 +409,10 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>985</v>
+        <v>1414</v>
       </c>
       <c r="C20">
-        <v>0.32659152150154114</v>
+        <v>0.46743801236152649</v>
       </c>
       <c r="D20"/>
     </row>
@@ -454,10 +421,10 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>1124</v>
+        <v>1490</v>
       </c>
       <c r="C21">
-        <v>0.37267905473709106</v>
+        <v>0.49256199598312378</v>
       </c>
       <c r="D21"/>
     </row>
@@ -466,10 +433,10 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>1345</v>
+        <v>1497</v>
       </c>
       <c r="C22">
-        <v>0.44595491886138916</v>
+        <v>0.49487602710723877</v>
       </c>
       <c r="D22"/>
     </row>
@@ -478,10 +445,10 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>1423</v>
+        <v>1842</v>
       </c>
       <c r="C23">
-        <v>0.47181698679924011</v>
+        <v>0.60892564058303833</v>
       </c>
       <c r="D23"/>
     </row>
@@ -490,84 +457,12 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>1603</v>
+        <v>2436</v>
       </c>
       <c r="C24">
-        <v>0.53149867057800293</v>
+        <v>0.80528926849365234</v>
       </c>
       <c r="D24"/>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <v>1660</v>
-      </c>
-      <c r="C25">
-        <v>0.55039787292480469</v>
-      </c>
-      <c r="D25"/>
-    </row>
-    <row r="26">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26">
-        <v>1798</v>
-      </c>
-      <c r="C26">
-        <v>0.5961538553237915</v>
-      </c>
-      <c r="D26"/>
-    </row>
-    <row r="27">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27">
-        <v>1811</v>
-      </c>
-      <c r="C27">
-        <v>0.60046416521072388</v>
-      </c>
-      <c r="D27"/>
-    </row>
-    <row r="28">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28">
-        <v>1817</v>
-      </c>
-      <c r="C28">
-        <v>0.60245358943939209</v>
-      </c>
-      <c r="D28"/>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29">
-        <v>1859</v>
-      </c>
-      <c r="C29">
-        <v>0.61637932062149048</v>
-      </c>
-      <c r="D29"/>
-    </row>
-    <row r="30">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30">
-        <v>2424</v>
-      </c>
-      <c r="C30">
-        <v>0.80371350049972534</v>
-      </c>
-      <c r="D30"/>
     </row>
   </sheetData>
 </worksheet>
@@ -575,95 +470,71 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B8"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
         <v>36</v>
-      </c>
-      <c r="B7" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
         <v>37</v>
-      </c>
-      <c r="B11" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>
